--- a/Onyx/wwwroot/formats/Emp_Incentive_Import_Sample.xlsx
+++ b/Onyx/wwwroot/formats/Emp_Incentive_Import_Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gines\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA506B8-2A9D-4C4B-8B97-3519E75328D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8601CE89-D1C7-4A01-AF95-FD5E395BF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E50CF398-DA2C-4B7D-84AE-DC8FC7B7A6A9}"/>
   </bookViews>
@@ -411,9 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92D37F5-C413-492A-8409-C5A87453E139}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
